--- a/Unity/Assets/_result/New/StageUIConfig.xlsx
+++ b/Unity/Assets/_result/New/StageUIConfig.xlsx
@@ -59,7 +59,7 @@
     <t>页面1的所有stage</t>
   </si>
   <si>
-    <t>[{"StageNum":1,"Postion":"0,0"},{"StageNum":2,"Postion":"-56,145"},{"StageNum":3,"Postion":"21,306"},{"StageNum":4,"Postion":"350,120"}]</t>
+    <t>[{"StageNum":1,"Postion":"0,0"},{"StageNum":2,"Postion":"-56,145"},{"StageNum":3,"Postion":"21,306"},{"StageNum":4,"Postion":"350,120"},{"StageNum":5,"Postion":"350,120"}]</t>
   </si>
   <si>
     <t>页面2的所有stage</t>
